--- a/Journaux_de_travail/Antoine.xlsx
+++ b/Journaux_de_travail/Antoine.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Journal de travail</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">Introduction au projet, découverte du jeu, formation des groupes, discussions préliminaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalisation de la liste des fonctionnalités, première réflexions sur le protocole (JSON, TCP), répartition du travail</t>
   </si>
   <si>
     <t xml:space="preserve">Exemple</t>
@@ -297,7 +300,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -345,10 +348,16 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
+    <row r="6" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
+        <v>43004</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>3.75</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6"/>
@@ -475,7 +484,7 @@
         <v>42823</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" s="8" t="n">
         <v>0</v>
@@ -483,11 +492,11 @@
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" s="10" t="n">
         <f aca="false">SUM(C5:C31)</f>
-        <v>3.5</v>
+        <v>7.25</v>
       </c>
     </row>
   </sheetData>

--- a/Journaux_de_travail/Antoine.xlsx
+++ b/Journaux_de_travail/Antoine.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Journal de travail</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t xml:space="preserve">Finalisation de la liste des fonctionnalités, première réflexions sur le protocole (JSON, TCP), répartition du travail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implémentation du dictionnaire en TST et recherche d’anagrammes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conception (diagramme UML serveur)</t>
   </si>
   <si>
     <t xml:space="preserve">Exemple</t>
@@ -300,7 +306,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -359,15 +365,27 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="n">
+        <v>43005</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
+        <v>43011</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>3.75</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6"/>
@@ -484,7 +502,7 @@
         <v>42823</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C31" s="8" t="n">
         <v>0</v>
@@ -492,11 +510,11 @@
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C32" s="10" t="n">
         <f aca="false">SUM(C5:C31)</f>
-        <v>7.25</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Journaux_de_travail/Antoine.xlsx
+++ b/Journaux_de_travail/Antoine.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Journal de travail</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">Conception (diagramme UML serveur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plannification, finition des diagrammes, configuration de l’IDE (sous linux) pour javafx</t>
   </si>
   <si>
     <t xml:space="preserve">Exemple</t>
@@ -306,7 +309,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -387,10 +390,16 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="n">
+        <v>43018</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>3.75</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
@@ -502,7 +511,7 @@
         <v>42823</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" s="8" t="n">
         <v>0</v>
@@ -510,11 +519,11 @@
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32" s="10" t="n">
         <f aca="false">SUM(C5:C31)</f>
-        <v>16</v>
+        <v>19.75</v>
       </c>
     </row>
   </sheetData>

--- a/Journaux_de_travail/Antoine.xlsx
+++ b/Journaux_de_travail/Antoine.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Journal de travail</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">Plannification, finition des diagrammes, configuration de l’IDE (sous linux) pour javafx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Léger refactoring, ajout de la fonction de recherche du meilleur mot</t>
   </si>
   <si>
     <t xml:space="preserve">Exemple</t>
@@ -309,7 +312,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -401,10 +404,16 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="n">
+        <v>43029</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
@@ -511,7 +520,7 @@
         <v>42823</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C31" s="8" t="n">
         <v>0</v>
@@ -519,11 +528,11 @@
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C32" s="10" t="n">
         <f aca="false">SUM(C5:C31)</f>
-        <v>19.75</v>
+        <v>22.75</v>
       </c>
     </row>
   </sheetData>

--- a/Journaux_de_travail/Antoine.xlsx
+++ b/Journaux_de_travail/Antoine.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">Journal de travail</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">Léger refactoring, ajout de la fonction de recherche du meilleur mot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussions de groupe, wordanalyzer</t>
   </si>
   <si>
     <t xml:space="preserve">Exemple</t>
@@ -312,7 +315,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -415,10 +418,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="n">
+        <v>43032</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
@@ -520,7 +529,7 @@
         <v>42823</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" s="8" t="n">
         <v>0</v>
@@ -528,11 +537,11 @@
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C32" s="10" t="n">
         <f aca="false">SUM(C5:C31)</f>
-        <v>22.75</v>
+        <v>25.75</v>
       </c>
     </row>
   </sheetData>

--- a/Journaux_de_travail/Antoine.xlsx
+++ b/Journaux_de_travail/Antoine.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">Journal de travail</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">Discussions de groupe, wordanalyzer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relecture du code</t>
   </si>
   <si>
     <t xml:space="preserve">Exemple</t>
@@ -429,10 +432,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="n">
+        <v>42765</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
@@ -529,7 +538,7 @@
         <v>42823</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31" s="8" t="n">
         <v>0</v>
@@ -537,11 +546,11 @@
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32" s="10" t="n">
         <f aca="false">SUM(C5:C31)</f>
-        <v>25.75</v>
+        <v>26.75</v>
       </c>
     </row>
   </sheetData>

--- a/Journaux_de_travail/Antoine.xlsx
+++ b/Journaux_de_travail/Antoine.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Journal de travail</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">Relecture du code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refactoring pour adapter les Model aux besoins de l’API REST</t>
   </si>
   <si>
     <t xml:space="preserve">Exemple</t>
@@ -318,7 +321,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -434,7 +437,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
-        <v>42765</v>
+        <v>43039</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>13</v>
@@ -443,10 +446,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="n">
+        <v>43040</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
@@ -538,7 +547,7 @@
         <v>42823</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C31" s="8" t="n">
         <v>0</v>
@@ -546,11 +555,11 @@
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C32" s="10" t="n">
         <f aca="false">SUM(C5:C31)</f>
-        <v>26.75</v>
+        <v>27.75</v>
       </c>
     </row>
   </sheetData>

--- a/Journaux_de_travail/Antoine.xlsx
+++ b/Journaux_de_travail/Antoine.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Journal de travail</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">Refactoring pour adapter les Model aux besoins de l’API REST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refactoring complet des DTO</t>
   </si>
   <si>
     <t xml:space="preserve">Exemple</t>
@@ -321,7 +324,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -457,10 +460,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="n">
+        <v>43044</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6"/>
@@ -547,7 +556,7 @@
         <v>42823</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="8" t="n">
         <v>0</v>
@@ -555,11 +564,11 @@
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C32" s="10" t="n">
         <f aca="false">SUM(C5:C31)</f>
-        <v>27.75</v>
+        <v>31.75</v>
       </c>
     </row>
   </sheetData>

--- a/Journaux_de_travail/Antoine.xlsx
+++ b/Journaux_de_travail/Antoine.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Journal de travail</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">Refactoring complet des DTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implémentation du joker dans le wordanalyser et le dictionnaire</t>
   </si>
   <si>
     <t xml:space="preserve">Exemple</t>
@@ -324,7 +327,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -471,10 +474,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="n">
+        <v>43047</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>3.75</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
@@ -556,7 +565,7 @@
         <v>42823</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" s="8" t="n">
         <v>0</v>
@@ -564,11 +573,11 @@
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32" s="10" t="n">
         <f aca="false">SUM(C5:C31)</f>
-        <v>31.75</v>
+        <v>35.5</v>
       </c>
     </row>
   </sheetData>

--- a/Journaux_de_travail/Antoine.xlsx
+++ b/Journaux_de_travail/Antoine.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Journal de travail</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t xml:space="preserve">Implémentation du joker dans le wordanalyser et le dictionnaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debug wordanalyser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debug DictionaryLoader + wordanalyzer</t>
   </si>
   <si>
     <t xml:space="preserve">Exemple</t>
@@ -327,7 +333,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -485,15 +491,27 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="n">
+        <v>43048</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="n">
+        <v>43049</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6"/>
@@ -565,7 +583,7 @@
         <v>42823</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C31" s="8" t="n">
         <v>0</v>
@@ -573,11 +591,11 @@
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C32" s="10" t="n">
         <f aca="false">SUM(C5:C31)</f>
-        <v>35.5</v>
+        <v>43.5</v>
       </c>
     </row>
   </sheetData>

--- a/Journaux_de_travail/Antoine.xlsx
+++ b/Journaux_de_travail/Antoine.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Journal de travail</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve">Debug DictionaryLoader + wordanalyzer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Préparation à la présentation intermédiaire</t>
   </si>
   <si>
     <t xml:space="preserve">Exemple</t>
@@ -333,7 +336,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -513,10 +516,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="n">
+        <v>43051</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6"/>
@@ -583,7 +592,7 @@
         <v>42823</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C31" s="8" t="n">
         <v>0</v>
@@ -591,11 +600,11 @@
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C32" s="10" t="n">
         <f aca="false">SUM(C5:C31)</f>
-        <v>43.5</v>
+        <v>44.5</v>
       </c>
     </row>
   </sheetData>

--- a/Journaux_de_travail/Antoine.xlsx
+++ b/Journaux_de_travail/Antoine.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Journal de travail</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">Préparation à la présentation intermédiaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refactoring en vue d’ajouter le Hint au wordanalyzer</t>
   </si>
   <si>
     <t xml:space="preserve">Exemple</t>
@@ -336,7 +339,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -527,10 +530,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="n">
+        <v>43081</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>3.75</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6"/>
@@ -592,7 +601,7 @@
         <v>42823</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C31" s="8" t="n">
         <v>0</v>
@@ -600,11 +609,11 @@
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C32" s="10" t="n">
         <f aca="false">SUM(C5:C31)</f>
-        <v>44.5</v>
+        <v>48.25</v>
       </c>
     </row>
   </sheetData>

--- a/Journaux_de_travail/Antoine.xlsx
+++ b/Journaux_de_travail/Antoine.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Journal de travail</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">Refactoring en vue d’ajouter le Hint au wordanalyzer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Développement de la fonction hint</t>
   </si>
   <si>
     <t xml:space="preserve">Exemple</t>
@@ -339,7 +342,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -541,10 +544,16 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="n">
+        <v>43082</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6"/>
@@ -601,7 +610,7 @@
         <v>42823</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C31" s="8" t="n">
         <v>0</v>
@@ -609,11 +618,11 @@
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C32" s="10" t="n">
         <f aca="false">SUM(C5:C31)</f>
-        <v>48.25</v>
+        <v>49.75</v>
       </c>
     </row>
   </sheetData>

--- a/Journaux_de_travail/Antoine.xlsx
+++ b/Journaux_de_travail/Antoine.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Journal de travail</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t xml:space="preserve">Développement de la fonction hint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implémentation d’endpoints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implémentation du « passer le tour »</t>
   </si>
   <si>
     <t xml:space="preserve">Exemple</t>
@@ -100,7 +106,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="MM/DD/YY;@"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YY;@"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -342,7 +348,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -555,15 +561,27 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="n">
+        <v>43088</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="n">
+        <v>43098</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6"/>
@@ -610,7 +628,7 @@
         <v>42823</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C31" s="8" t="n">
         <v>0</v>
@@ -618,11 +636,11 @@
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C32" s="10" t="n">
         <f aca="false">SUM(C5:C31)</f>
-        <v>49.75</v>
+        <v>56.75</v>
       </c>
     </row>
   </sheetData>

--- a/Journaux_de_travail/Antoine.xlsx
+++ b/Journaux_de_travail/Antoine.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">Journal de travail</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t xml:space="preserve">Implémentation du « passer le tour »</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implémentation du peek et hint (côté serveur)</t>
   </si>
   <si>
     <t xml:space="preserve">Exemple</t>
@@ -348,7 +351,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -583,10 +586,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="n">
+        <v>43099</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6"/>
@@ -628,7 +637,7 @@
         <v>42823</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C31" s="8" t="n">
         <v>0</v>
@@ -636,11 +645,11 @@
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C32" s="10" t="n">
         <f aca="false">SUM(C5:C31)</f>
-        <v>56.75</v>
+        <v>58.75</v>
       </c>
     </row>
   </sheetData>

--- a/Journaux_de_travail/Antoine.xlsx
+++ b/Journaux_de_travail/Antoine.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">Journal de travail</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t xml:space="preserve">Implémentation du peek et hint (côté serveur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endpoint powers complètement implémenté</t>
   </si>
   <si>
     <t xml:space="preserve">Exemple</t>
@@ -351,7 +354,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -597,10 +600,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="n">
+        <v>43071</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6"/>
@@ -637,7 +646,7 @@
         <v>42823</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C31" s="8" t="n">
         <v>0</v>
@@ -645,11 +654,11 @@
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C32" s="10" t="n">
         <f aca="false">SUM(C5:C31)</f>
-        <v>58.75</v>
+        <v>61.75</v>
       </c>
     </row>
   </sheetData>

--- a/Journaux_de_travail/Antoine.xlsx
+++ b/Journaux_de_travail/Antoine.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t xml:space="preserve">Journal de travail</t>
   </si>
@@ -37,9 +37,6 @@
     <t xml:space="preserve">Heures</t>
   </si>
   <si>
-    <t xml:space="preserve">au quart d’heure près, en décimal, une ligne par activité (pas par jour)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Introduction au projet, découverte du jeu, formation des groupes, discussions préliminaires</t>
   </si>
   <si>
@@ -100,7 +97,10 @@
     <t xml:space="preserve">Endpoint powers complètement implémenté</t>
   </si>
   <si>
-    <t xml:space="preserve">Exemple</t>
+    <t xml:space="preserve">Bug fixes, aide à l’implémentation de l’UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rédaction rapport</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -351,10 +351,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -377,7 +377,7 @@
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" s="5" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -386,9 +386,6 @@
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -396,7 +393,7 @@
         <v>42997</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="8" t="n">
         <v>3.5</v>
@@ -407,7 +404,7 @@
         <v>43004</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="8" t="n">
         <v>3.75</v>
@@ -418,10 +415,10 @@
         <v>43005</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -429,7 +426,7 @@
         <v>43011</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="8" t="n">
         <v>3.75</v>
@@ -440,7 +437,7 @@
         <v>43018</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="8" t="n">
         <v>3.75</v>
@@ -451,7 +448,7 @@
         <v>43029</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="8" t="n">
         <v>3</v>
@@ -462,7 +459,7 @@
         <v>43032</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="8" t="n">
         <v>3</v>
@@ -473,7 +470,7 @@
         <v>43039</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="8" t="n">
         <v>1</v>
@@ -484,7 +481,7 @@
         <v>43040</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="8" t="n">
         <v>1</v>
@@ -495,7 +492,7 @@
         <v>43044</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="8" t="n">
         <v>4</v>
@@ -506,10 +503,10 @@
         <v>43047</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -517,7 +514,7 @@
         <v>43048</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="8" t="n">
         <v>5</v>
@@ -528,10 +525,10 @@
         <v>43049</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -539,7 +536,7 @@
         <v>43051</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="8" t="n">
         <v>1</v>
@@ -550,7 +547,7 @@
         <v>43081</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="8" t="n">
         <v>3.75</v>
@@ -561,7 +558,7 @@
         <v>43082</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="8" t="n">
         <v>1.5</v>
@@ -572,7 +569,7 @@
         <v>43088</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="8" t="n">
         <v>3</v>
@@ -583,7 +580,7 @@
         <v>43098</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="8" t="n">
         <v>4</v>
@@ -594,7 +591,7 @@
         <v>43099</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="8" t="n">
         <v>2</v>
@@ -605,31 +602,55 @@
         <v>43071</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="8" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="n">
+        <v>42742</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="n">
+        <v>42744</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="n">
+        <v>42748</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="n">
+        <v>42749</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6"/>
@@ -642,15 +663,9 @@
       <c r="C30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="n">
-        <v>42823</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
@@ -658,7 +673,7 @@
       </c>
       <c r="C32" s="10" t="n">
         <f aca="false">SUM(C5:C31)</f>
-        <v>61.75</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Journaux_de_travail/Antoine.xlsx
+++ b/Journaux_de_travail/Antoine.xlsx
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Léger refactoring, ajout de la fonction de recherche du meilleur mot</t>
   </si>
   <si>
-    <t xml:space="preserve">Discussions de groupe, wordanalyzer</t>
+    <t xml:space="preserve">Discussions de groupe, travail sur wordanalyzer</t>
   </si>
   <si>
     <t xml:space="preserve">Relecture du code</t>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">Implémentation du peek et hint (côté serveur)</t>
   </si>
   <si>
-    <t xml:space="preserve">Endpoint powers complètement implémenté</t>
+    <t xml:space="preserve">Endpoint powers corrigé et opérationel</t>
   </si>
   <si>
     <t xml:space="preserve">Bug fixes, aide à l’implémentation de l’UI</t>
@@ -354,7 +354,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -484,7 +484,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -539,7 +539,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="8" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -673,7 +673,7 @@
       </c>
       <c r="C32" s="10" t="n">
         <f aca="false">SUM(C5:C31)</f>
-        <v>78</v>
+        <v>79.5</v>
       </c>
     </row>
   </sheetData>
